--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11986" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12347" uniqueCount="198">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2210,7 +2210,7 @@
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -2227,7 +2227,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -2414,7 +2414,7 @@
         <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -2431,7 +2431,7 @@
         <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -2448,7 +2448,7 @@
         <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -2465,7 +2465,7 @@
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2482,7 +2482,7 @@
         <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -2499,7 +2499,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -2516,7 +2516,7 @@
         <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -2533,7 +2533,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -2550,7 +2550,7 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -2567,7 +2567,7 @@
         <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -2584,7 +2584,7 @@
         <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
@@ -2601,7 +2601,7 @@
         <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -2618,7 +2618,7 @@
         <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
@@ -2635,7 +2635,7 @@
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -2652,7 +2652,7 @@
         <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -2669,7 +2669,7 @@
         <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -2771,7 +2771,7 @@
         <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>57</v>
@@ -2788,7 +2788,7 @@
         <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -2839,7 +2839,7 @@
         <v>172</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -2992,7 +2992,7 @@
         <v>186</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>57</v>
@@ -3009,7 +3009,7 @@
         <v>187</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -3026,7 +3026,7 @@
         <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>80</v>
@@ -3043,7 +3043,7 @@
         <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
@@ -3060,7 +3060,7 @@
         <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -3077,7 +3077,7 @@
         <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12347" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39022" uniqueCount="282">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -609,6 +609,312 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGN ANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO ERRORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLANT_SENSOR_FAILURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolant temperature sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_ERROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_ERRORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNOCKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knock detected!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAT_SENSOR_FAILURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAT sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP_SENSOR_FAILURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2_SENSOR_FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2 sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGT1_SESNSOR_FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGT sensor #1 failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGT2_SENSOR_FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGT sensor #2 failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGT_HIGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGT too high!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBW_SENSOR_FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drive by wire failure!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPR_RELATIVE_ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel pressure relative error!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
   </si>
 </sst>
 </file>
@@ -3123,6 +3429,280 @@
         <v>58</v>
       </c>
     </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" t="s">
+        <v>210</v>
+      </c>
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" t="s">
+        <v>226</v>
+      </c>
+      <c r="F73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74"/>
+    <row r="75"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39022" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56838" uniqueCount="343">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -863,6 +863,221 @@
   <si>
     <t xml:space="preserve">
 MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost Trgt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injector DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL_TEMPERATURE_PROTECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil temperature protection!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL_PRESSSURE_PROTECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil pressure protection!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLT_PROTECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLT protection!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL_PRESSURE_PROTECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel pressure protection!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK ENG : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG  PROT : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId96</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3593,7 +3808,7 @@
         <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="F67" t="s">
         <v>58</v>
@@ -3701,8 +3916,346 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74"/>
-    <row r="75"/>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" t="s">
+        <v>288</v>
+      </c>
+      <c r="F79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>292</v>
+      </c>
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" t="s">
+        <v>296</v>
+      </c>
+      <c r="F85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" t="s">
+        <v>308</v>
+      </c>
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>309</v>
+      </c>
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" t="s">
+        <v>310</v>
+      </c>
+      <c r="F87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" t="s">
+        <v>312</v>
+      </c>
+      <c r="F88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" t="s">
+        <v>314</v>
+      </c>
+      <c r="F89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>321</v>
+      </c>
+      <c r="C90" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" t="s">
+        <v>322</v>
+      </c>
+      <c r="F90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" t="s">
+        <v>324</v>
+      </c>
+      <c r="F91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>327</v>
+      </c>
+      <c r="C92" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" t="s">
+        <v>328</v>
+      </c>
+      <c r="F92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>329</v>
+      </c>
+      <c r="C93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" t="s">
+        <v>324</v>
+      </c>
+      <c r="F93" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56838" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57433" uniqueCount="347">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1130,6 +1130,18 @@
   <si>
     <t xml:space="preserve">
 MAP sensor failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM/H</t>
   </si>
 </sst>
 </file>
@@ -3808,7 +3820,7 @@
         <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
         <v>58</v>
@@ -4253,6 +4265,57 @@
         <v>324</v>
       </c>
       <c r="F93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" t="s">
+        <v>57</v>
+      </c>
+      <c r="E94" t="s">
+        <v>81</v>
+      </c>
+      <c r="F94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" t="s">
+        <v>161</v>
+      </c>
+      <c r="F95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>345</v>
+      </c>
+      <c r="C96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" t="s">
+        <v>346</v>
+      </c>
+      <c r="F96" t="s">
         <v>58</v>
       </c>
     </row>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57433" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64581" uniqueCount="390">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1142,6 +1142,135 @@
   </si>
   <si>
     <t xml:space="preserve">KM/H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFF T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId129</t>
   </si>
 </sst>
 </file>
@@ -2540,9 +2669,13 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
       <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
       <c r="J8"/>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2774,10 +2907,10 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -2791,16 +2924,16 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2808,7 +2941,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -2825,7 +2958,7 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
@@ -2842,7 +2975,7 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -2859,7 +2992,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -2876,7 +3009,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
@@ -2893,7 +3026,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
         <v>92</v>
@@ -2910,10 +3043,10 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2927,16 +3060,16 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -2944,7 +3077,7 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -2961,7 +3094,7 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
@@ -2970,7 +3103,7 @@
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -2978,16 +3111,16 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="F18" t="s">
         <v>58</v>
@@ -2995,16 +3128,16 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
@@ -3012,7 +3145,7 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -3021,7 +3154,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>352</v>
       </c>
       <c r="F20" t="s">
         <v>58</v>
@@ -3029,7 +3162,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -3038,7 +3171,7 @@
         <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -3046,7 +3179,7 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -3055,7 +3188,7 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -3063,16 +3196,16 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
         <v>58</v>
@@ -3080,16 +3213,16 @@
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>58</v>
@@ -3097,16 +3230,16 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
@@ -3114,16 +3247,16 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
         <v>58</v>
@@ -3131,16 +3264,16 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
         <v>58</v>
@@ -3148,16 +3281,16 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
         <v>58</v>
@@ -3165,16 +3298,16 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="F29" t="s">
         <v>58</v>
@@ -3182,16 +3315,16 @@
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
@@ -3199,16 +3332,16 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
@@ -3216,16 +3349,16 @@
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
         <v>58</v>
@@ -3233,16 +3366,16 @@
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
         <v>58</v>
@@ -3250,16 +3383,16 @@
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
         <v>58</v>
@@ -3267,16 +3400,16 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
@@ -3284,16 +3417,16 @@
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
         <v>58</v>
@@ -3301,16 +3434,16 @@
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
         <v>58</v>
@@ -3318,16 +3451,16 @@
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
         <v>58</v>
@@ -3335,16 +3468,16 @@
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
         <v>58</v>
@@ -3352,16 +3485,16 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
         <v>58</v>
@@ -3369,16 +3502,16 @@
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
         <v>58</v>
@@ -3386,16 +3519,16 @@
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
         <v>58</v>
@@ -3403,16 +3536,16 @@
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
         <v>58</v>
@@ -3420,16 +3553,16 @@
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="F44" t="s">
         <v>58</v>
@@ -3437,16 +3570,16 @@
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
         <v>58</v>
@@ -3454,16 +3587,16 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
         <v>58</v>
@@ -3471,16 +3604,16 @@
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="F47" t="s">
         <v>58</v>
@@ -3488,16 +3621,16 @@
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
         <v>58</v>
@@ -3505,7 +3638,7 @@
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s">
         <v>92</v>
@@ -3514,7 +3647,7 @@
         <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
         <v>58</v>
@@ -3522,16 +3655,16 @@
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="F50" t="s">
         <v>58</v>
@@ -3539,16 +3672,16 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F51" t="s">
         <v>58</v>
@@ -3556,7 +3689,7 @@
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
@@ -3565,7 +3698,7 @@
         <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
         <v>58</v>
@@ -3573,16 +3706,16 @@
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="F53" t="s">
         <v>58</v>
@@ -3590,16 +3723,16 @@
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="F54" t="s">
         <v>58</v>
@@ -3607,7 +3740,7 @@
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
         <v>40</v>
@@ -3616,7 +3749,7 @@
         <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
@@ -3624,16 +3757,16 @@
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="F56" t="s">
         <v>58</v>
@@ -3641,16 +3774,16 @@
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="F57" t="s">
         <v>58</v>
@@ -3658,16 +3791,16 @@
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="F58" t="s">
         <v>58</v>
@@ -3675,16 +3808,16 @@
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="F59" t="s">
         <v>58</v>
@@ -3692,7 +3825,7 @@
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
         <v>40</v>
@@ -3701,7 +3834,7 @@
         <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="F60" t="s">
         <v>58</v>
@@ -3709,7 +3842,7 @@
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
         <v>40</v>
@@ -3718,7 +3851,7 @@
         <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="F61" t="s">
         <v>58</v>
@@ -3726,7 +3859,7 @@
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="C62" t="s">
         <v>40</v>
@@ -3735,7 +3868,7 @@
         <v>80</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="F62" t="s">
         <v>58</v>
@@ -3743,7 +3876,7 @@
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="C63" t="s">
         <v>40</v>
@@ -3752,7 +3885,7 @@
         <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="F63" t="s">
         <v>58</v>
@@ -3760,7 +3893,7 @@
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="C64" t="s">
         <v>40</v>
@@ -3769,7 +3902,7 @@
         <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="F64" t="s">
         <v>58</v>
@@ -3777,7 +3910,7 @@
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="C65" t="s">
         <v>40</v>
@@ -3786,7 +3919,7 @@
         <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="F65" t="s">
         <v>58</v>
@@ -3794,7 +3927,7 @@
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="C66" t="s">
         <v>40</v>
@@ -3803,7 +3936,7 @@
         <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
         <v>58</v>
@@ -3811,7 +3944,7 @@
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="C67" t="s">
         <v>40</v>
@@ -3820,7 +3953,7 @@
         <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
       <c r="F67" t="s">
         <v>58</v>
@@ -3828,7 +3961,7 @@
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="C68" t="s">
         <v>40</v>
@@ -3837,7 +3970,7 @@
         <v>80</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="F68" t="s">
         <v>58</v>
@@ -3845,16 +3978,16 @@
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="F69" t="s">
         <v>58</v>
@@ -3862,16 +3995,16 @@
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
         <v>58</v>
@@ -3879,16 +4012,16 @@
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
         <v>58</v>
@@ -3896,16 +4029,16 @@
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>223</v>
+        <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
         <v>58</v>
@@ -3913,7 +4046,7 @@
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>225</v>
+        <v>355</v>
       </c>
       <c r="C73" t="s">
         <v>40</v>
@@ -3922,7 +4055,7 @@
         <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
       <c r="F73" t="s">
         <v>58</v>
@@ -3930,16 +4063,16 @@
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="F74" t="s">
         <v>58</v>
@@ -3947,16 +4080,16 @@
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>230</v>
+        <v>359</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
         <v>58</v>
@@ -3964,16 +4097,16 @@
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="F76" t="s">
         <v>58</v>
@@ -3981,10 +4114,10 @@
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
         <v>57</v>
@@ -3998,16 +4131,16 @@
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s">
         <v>58</v>
@@ -4015,7 +4148,7 @@
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="C79" t="s">
         <v>40</v>
@@ -4024,7 +4157,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="F79" t="s">
         <v>58</v>
@@ -4032,16 +4165,16 @@
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="F80" t="s">
         <v>58</v>
@@ -4049,16 +4182,16 @@
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E81" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F81" t="s">
         <v>58</v>
@@ -4066,16 +4199,16 @@
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
         <v>58</v>
@@ -4083,16 +4216,16 @@
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="F83" t="s">
         <v>58</v>
@@ -4100,16 +4233,16 @@
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="F84" t="s">
         <v>58</v>
@@ -4117,16 +4250,16 @@
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E85" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="F85" t="s">
         <v>58</v>
@@ -4134,16 +4267,16 @@
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="F86" t="s">
         <v>58</v>
@@ -4151,16 +4284,16 @@
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="F87" t="s">
         <v>58</v>
@@ -4168,16 +4301,16 @@
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
         <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="F88" t="s">
         <v>58</v>
@@ -4185,16 +4318,16 @@
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
+        <v>94</v>
       </c>
       <c r="F89" t="s">
         <v>58</v>
@@ -4202,16 +4335,16 @@
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
         <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="F90" t="s">
         <v>58</v>
@@ -4219,16 +4352,16 @@
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
         <v>80</v>
       </c>
       <c r="E91" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c r="F91" t="s">
         <v>58</v>
@@ -4236,16 +4369,16 @@
     </row>
     <row r="92">
       <c r="B92" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
         <v>80</v>
       </c>
       <c r="E92" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="F92" t="s">
         <v>58</v>
@@ -4253,16 +4386,16 @@
     </row>
     <row r="93">
       <c r="B93" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D93" t="s">
         <v>80</v>
       </c>
       <c r="E93" t="s">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="F93" t="s">
         <v>58</v>
@@ -4270,13 +4403,13 @@
     </row>
     <row r="94">
       <c r="B94" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E94" t="s">
         <v>81</v>
@@ -4287,16 +4420,16 @@
     </row>
     <row r="95">
       <c r="B95" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
       </c>
       <c r="E95" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="F95" t="s">
         <v>58</v>
@@ -4304,21 +4437,43 @@
     </row>
     <row r="96">
       <c r="B96" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D96" t="s">
         <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="F96" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
